--- a/data/trans_dic/P35_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P35_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que bebe alcohol diariamente</t>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 20,73</t>
+          <t>11,17; 22,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 17,76</t>
+          <t>7,98; 18,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 16,63</t>
+          <t>8,62; 19,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 11,07</t>
+          <t>5,9; 16,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 9,18</t>
+          <t>5,46; 12,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 8,4</t>
+          <t>5,18; 12,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,35</t>
+          <t>4,37; 11,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 11,83</t>
+          <t>5,57; 14,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,31</t>
+          <t>9,09; 15,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 13,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 13,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,9; 13,39</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 29,42</t>
+          <t>16,62; 33,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,62; 30,5</t>
+          <t>16,22; 30,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 28,7</t>
+          <t>16,46; 30,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,36</t>
+          <t>16,09; 30,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,64</t>
+          <t>1,02; 5,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,47</t>
+          <t>0,0; 3,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,04; 15,39</t>
+          <t>1,12; 6,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,29; 16,81</t>
+          <t>0,92; 5,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,33</t>
+          <t>8,92; 17,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 16,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 17,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8,96; 16,54</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,88; 34,8</t>
+          <t>7,15; 40,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 26,49</t>
+          <t>2,94; 28,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,63; 34,32</t>
+          <t>4,01; 29,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 15,75</t>
+          <t>4,03; 35,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 11,72</t>
+          <t>5,23; 27,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 12,83</t>
+          <t>2,2; 20,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 23,31</t>
+          <t>3,01; 24,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 16,1</t>
+          <t>0,0; 16,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 21,05</t>
+          <t>8,93; 27,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,03; 18,73</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 20,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 21,89</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>11,05%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>10,74%</t>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 23,28</t>
+          <t>15,62; 25,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,88; 21,59</t>
+          <t>13,45; 21,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 21,1</t>
+          <t>13,43; 22,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,3</t>
+          <t>11,64; 20,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,68</t>
+          <t>4,66; 9,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,19</t>
+          <t>3,57; 7,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,09</t>
+          <t>3,85; 8,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,81</t>
+          <t>4,15; 9,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 12,8</t>
+          <t>10,56; 15,7</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 13,44</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 13,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 13,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que bebe alcohol diariamente (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>69972</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46247</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>51665</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>53784</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>43837</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36473</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>30029</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52818</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>113809</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>82720</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>81695</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>106602</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>48022; 96759</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>29232; 66237</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32807; 73781</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30028; 83435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27758; 65453</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21827; 53142</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17742; 46162</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31029; 80794</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>85330; 146513</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>60203; 109002</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57846; 109296</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>73582; 142861</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>86086</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74792</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74280</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>92664</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11738</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3858</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9679</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11505</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97825</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78650</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>83958</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>104169</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59720; 119506</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51631; 98103</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>53096; 99537</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66323; 127114</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4356; 25089</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 13234</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3746; 21991</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4001; 23718</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>70024; 138680</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>56808; 107001</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60294; 112466</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>75752; 139858</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21431</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9994</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11829</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19168</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13435</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6035</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8077</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5595</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34866</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16029</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19906</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>24763</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7273; 41632</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2340; 22915</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3435; 25265</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4813; 42226</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5291; 27633</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1798; 17064</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2487; 20457</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18545</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18130; 54936</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6490; 30187</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8707; 34794</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10083; 50505</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>177489</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>131032</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>137774</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>165617</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>69010</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46366</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>47785</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69918</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>246500</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>177398</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>185559</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>235534</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>139204; 230447</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>102760; 165766</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>105974; 175253</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>121139; 216893</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>48219; 97125</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30053; 67181</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31705; 69099</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45677; 102316</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>203500; 302389</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>143280; 215754</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>150604; 225131</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>190078; 296508</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
